--- a/Tests/Varying_the_number_of_rules/times10rules.xlsx
+++ b/Tests/Varying_the_number_of_rules/times10rules.xlsx
@@ -1,35 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dead1401\PycharmProjects\SGAC\Tests\Varying_the_number_of_rules\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB1AAD-49E6-4DBA-800A-5F7485C47C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SGAC Execution Time" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Times" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SGAC Execution Time" sheetId="1" r:id="rId1"/>
+    <sheet name="Times" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>ProB</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Alloy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,15 +71,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -341,121 +376,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ProB</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Z3</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Alloy</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.938714265823364</v>
-      </c>
-      <c r="B2" t="n">
-        <v>52.12772727012634</v>
-      </c>
-      <c r="C2" t="n">
-        <v>61.43508458137512</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.9387142658233638</v>
+      </c>
+      <c r="B2">
+        <v>52.127727270126343</v>
+      </c>
+      <c r="C2">
+        <v>61.435084581375122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2.849427461624146</v>
       </c>
-      <c r="B3" t="n">
-        <v>133.5232872962952</v>
-      </c>
-      <c r="C3" t="n">
-        <v>171.3418202400208</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2.858865737915039</v>
-      </c>
-      <c r="B4" t="n">
-        <v>37.81500458717346</v>
-      </c>
-      <c r="C4" t="n">
-        <v>36.80686521530151</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B3">
+        <v>133.52328729629519</v>
+      </c>
+      <c r="C3">
+        <v>171.34182024002081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.8588657379150391</v>
+      </c>
+      <c r="B4">
+        <v>37.815004587173462</v>
+      </c>
+      <c r="C4">
+        <v>36.806865215301507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3.040876150131226</v>
       </c>
-      <c r="B5" t="n">
-        <v>42.90943574905396</v>
-      </c>
-      <c r="C5" t="n">
-        <v>38.28690218925476</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.791045904159546</v>
-      </c>
-      <c r="B6" t="n">
-        <v>91.53970766067505</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B5">
+        <v>42.909435749053962</v>
+      </c>
+      <c r="C5">
+        <v>38.286902189254761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.7910459041595459</v>
+      </c>
+      <c r="B6">
+        <v>91.539707660675049</v>
+      </c>
+      <c r="C6">
         <v>117.74929022789</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2.778260231018066</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>42.73985743522644</v>
       </c>
-      <c r="C7" t="n">
-        <v>77.10871863365173</v>
+      <c r="C7">
+        <v>77.108718633651733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>AVERAGE(A2:A7)</f>
+        <v>2.8761982917785645</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:C8" si="0">AVERAGE(B2:B7)</f>
+        <v>66.775836666425079</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>83.788113514582321</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>